--- a/CoreRulebook/Data/Archetypes/Artificer.xlsx
+++ b/CoreRulebook/Data/Archetypes/Artificer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t xml:space="preserve">Level</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Beginner</t>
   </si>
   <si>
-    <t xml:space="preserve">a</t>
+    <t xml:space="preserve">Artificer\apos{}s Augmentations</t>
   </si>
   <si>
     <t xml:space="preserve">Full Name:</t>
@@ -49,13 +49,13 @@
     <t xml:space="preserve">Artificer</t>
   </si>
   <si>
-    <t xml:space="preserve">b</t>
+    <t xml:space="preserve">Rune Experimentation</t>
   </si>
   <si>
     <t xml:space="preserve">HP:</t>
   </si>
   <si>
-    <t xml:space="preserve">c</t>
+    <t xml:space="preserve">Renew Bindings, Expert Enchanter</t>
   </si>
   <si>
     <t xml:space="preserve">FP:</t>
@@ -64,16 +64,13 @@
     <t xml:space="preserve">Novice</t>
   </si>
   <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
     <t xml:space="preserve">Armour:</t>
   </si>
   <si>
     <t xml:space="preserve">Medium Armour</t>
   </si>
   <si>
-    <t xml:space="preserve">e</t>
+    <t xml:space="preserve">Appraising Eyes</t>
   </si>
   <si>
     <t xml:space="preserve">Tools:</t>
@@ -88,6 +85,9 @@
     <t xml:space="preserve">Choose two from Elemental, Alteration, Conjuration \&amp; Warding, and one further dicsipline of your choice. </t>
   </si>
   <si>
+    <t xml:space="preserve">Enchantment Affinity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Weapons:</t>
   </si>
   <si>
@@ -97,6 +97,9 @@
     <t xml:space="preserve">Adept</t>
   </si>
   <si>
+    <t xml:space="preserve">Tweak Enchantment</t>
+  </si>
+  <si>
     <t xml:space="preserve">Proficiencies:</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t xml:space="preserve">Wand, a Scholar\apos{}s pack containing the tools selected above. </t>
   </si>
   <si>
+    <t xml:space="preserve">Imbue Sentience</t>
+  </si>
+  <si>
     <t xml:space="preserve">Memorised Spells</t>
   </si>
   <si>
@@ -118,10 +124,25 @@
     <t xml:space="preserve">Expert</t>
   </si>
   <si>
+    <t xml:space="preserve">Runecasting</t>
+  </si>
+  <si>
     <t xml:space="preserve">Master</t>
   </si>
   <si>
+    <t xml:space="preserve">Networked Augmentations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empowered Sentience</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ascendant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enchantment Affinity II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shared Soul</t>
   </si>
 </sst>
 </file>
@@ -252,7 +273,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -260,7 +281,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.59"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="24.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
@@ -358,14 +379,11 @@
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -380,13 +398,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,14 +418,11 @@
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,7 +437,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>22</v>
@@ -431,7 +446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -443,16 +458,16 @@
         <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -463,17 +478,14 @@
       <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
@@ -485,13 +497,13 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,10 +515,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -518,10 +527,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,10 +542,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,10 +554,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,10 +569,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -578,10 +581,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,10 +596,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,10 +608,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,10 +623,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,10 +635,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Archetypes/Artificer.xlsx
+++ b/CoreRulebook/Data/Archetypes/Artificer.xlsx
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Disciplines:</t>
   </si>
   <si>
-    <t xml:space="preserve">Choose two from Elemental, Alteration, Conjuration \&amp; Warding, and one further dicsipline of your choice. </t>
+    <t xml:space="preserve">Choose one discipline of your choice, and a further two from Elemental, Alteration, Conjuration \&amp; Warding.</t>
   </si>
   <si>
     <t xml:space="preserve">Enchantment Affinity</t>
@@ -273,7 +273,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -407,7 +407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>

--- a/CoreRulebook/Data/Archetypes/Artificer.xlsx
+++ b/CoreRulebook/Data/Archetypes/Artificer.xlsx
@@ -285,16 +285,19 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/CoreRulebook/Data/Archetypes/Artificer.xlsx
+++ b/CoreRulebook/Data/Archetypes/Artificer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t xml:space="preserve">Level</t>
   </si>
@@ -46,25 +46,40 @@
     <t xml:space="preserve">Beginner</t>
   </si>
   <si>
+    <t xml:space="preserve">Artificer\apos{}s Specialisation, Ad-hoc Creations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Artificer\apos{}s Augmentations</t>
   </si>
   <si>
-    <t xml:space="preserve">Full Name:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artificer</t>
+    <t xml:space="preserve">Tools of the Trade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP:</t>
   </si>
   <si>
     <t xml:space="preserve">Rune Experimentation</t>
   </si>
   <si>
-    <t xml:space="preserve">HP:</t>
+    <t xml:space="preserve">Specialisation Feature I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FP:</t>
   </si>
   <si>
     <t xml:space="preserve">Renew Bindings, Expert Enchanter</t>
   </si>
   <si>
-    <t xml:space="preserve">FP:</t>
+    <t xml:space="preserve">Novice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tweak Effect</t>
   </si>
   <si>
     <t xml:space="preserve">Armour:</t>
@@ -73,16 +88,13 @@
     <t xml:space="preserve">Medium Armour</t>
   </si>
   <si>
-    <t xml:space="preserve">Novice</t>
-  </si>
-  <si>
     <t xml:space="preserve">Appraising Eyes</t>
   </si>
   <si>
     <t xml:space="preserve">Tools:</t>
   </si>
   <si>
-    <t xml:space="preserve">Runic Tools and one of Jeweller\apos{}s tools, Repair Kit and Smithing Tools</t>
+    <t xml:space="preserve">Choose one from Runic Tools, Alchemy Gear and Tinkering tools, plus any two additional tools. </t>
   </si>
   <si>
     <t xml:space="preserve">Disciplines:</t>
@@ -91,52 +103,70 @@
     <t xml:space="preserve">Choose one discipline of your choice, and a further two from Elemental, Alteration, Conjuration \&amp; Warding.</t>
   </si>
   <si>
+    <t xml:space="preserve">Specialisation Feature II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapons:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple Weapons</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enchantment Affinity</t>
   </si>
   <si>
-    <t xml:space="preserve">Weapons:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple Weapons</t>
+    <t xml:space="preserve">Adept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial Ally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proficiencies:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose any two from Arcane, History, Logic, Nature, Willpower and Investigation. </t>
   </si>
   <si>
     <t xml:space="preserve">Tweak Enchantment</t>
   </si>
   <si>
-    <t xml:space="preserve">Proficiencies:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose any two from Arcane, History, Logic, Willpower and Investigation. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Equipment:</t>
   </si>
   <si>
     <t xml:space="preserve">Wand, a Scholar\apos{}s pack containing the tools selected above. </t>
   </si>
   <si>
-    <t xml:space="preserve">Adept</t>
+    <t xml:space="preserve">Mobile Laboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memorised Spells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any four from the basic spells table.  </t>
   </si>
   <si>
     <t xml:space="preserve">Imbue Sentience</t>
   </si>
   <si>
-    <t xml:space="preserve">Memorised Spells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any four from the basic spells table.  </t>
+    <t xml:space="preserve">Expert</t>
   </si>
   <si>
     <t xml:space="preserve">List1 Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Signii</t>
+    <t xml:space="preserve">Ad-hocs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialisation Feature III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List2 Name</t>
   </si>
   <si>
     <t xml:space="preserve">Runecasting</t>
   </si>
   <si>
-    <t xml:space="preserve">List2 Name</t>
+    <t xml:space="preserve">Ally Improvement </t>
   </si>
   <si>
     <t xml:space="preserve">Networked Augmentations</t>
@@ -145,13 +175,25 @@
     <t xml:space="preserve">Master</t>
   </si>
   <si>
+    <t xml:space="preserve">Rapid Work</t>
+  </si>
+  <si>
     <t xml:space="preserve">Empowered Sentience</t>
   </si>
   <si>
+    <t xml:space="preserve">Specialisation Feature IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ally Improvement II</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enchantment Affinity II</t>
   </si>
   <si>
     <t xml:space="preserve">Ascendant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialisation Feature V</t>
   </si>
   <si>
     <t xml:space="preserve">Shared Soul</t>
@@ -164,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -193,6 +235,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -236,7 +283,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,6 +312,10 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -282,10 +333,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -346,6 +397,9 @@
       <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="K2" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -358,17 +412,20 @@
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -383,16 +440,19 @@
         <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,19 +464,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="46.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -425,19 +488,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="57.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,16 +515,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -470,22 +536,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -494,19 +563,22 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -518,16 +590,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>6</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,16 +614,19 @@
         <v>31</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,16 +638,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,16 +659,19 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>7</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,7 +683,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>8</v>
@@ -620,13 +701,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,7 +719,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>10</v>
@@ -653,13 +737,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,10 +755,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -686,13 +773,16 @@
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,10 +794,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -719,13 +809,16 @@
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>15</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Archetypes/Artificer.xlsx
+++ b/CoreRulebook/Data/Archetypes/Artificer.xlsx
@@ -193,7 +193,7 @@
     <t xml:space="preserve">Ascendant</t>
   </si>
   <si>
-    <t xml:space="preserve">Specialisation Feature V</t>
+    <t xml:space="preserve">Maximum Effectiveness</t>
   </si>
   <si>
     <t xml:space="preserve">Shared Soul</t>
@@ -206,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -234,11 +234,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -312,7 +307,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -336,7 +331,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
